--- a/src/Samples/AppDetails.xlsx
+++ b/src/Samples/AppDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F1E85E-E743-474E-B84C-2CFDCC1B6B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCBAF1-59AF-4E9C-8BB3-16769D418942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="472">
   <si>
     <t xml:space="preserve">Apartment No. </t>
   </si>
@@ -982,6 +982,477 @@
   </si>
   <si>
     <t>ANIL GOYAL / ASHA  GOYAL</t>
+  </si>
+  <si>
+    <t>HDFC ACCOUNT CREATION</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B1201</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1977,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1590,6 +2061,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2042,21 +2519,22 @@
   <dimension ref="A1:P161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.3984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.3984375" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="35.06640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2072,8 +2550,11 @@
       <c r="E1" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F1" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -2089,8 +2570,11 @@
       <c r="E2" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2590,11 @@
       <c r="E3" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -2123,8 +2610,11 @@
       <c r="E4" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2140,8 +2630,11 @@
       <c r="E5" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -2157,8 +2650,11 @@
       <c r="E6" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -2174,8 +2670,11 @@
       <c r="E7" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -2191,8 +2690,11 @@
       <c r="E8" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -2208,8 +2710,11 @@
       <c r="E9" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -2225,8 +2730,11 @@
       <c r="E10" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2242,8 +2750,11 @@
       <c r="E11" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -2259,8 +2770,11 @@
       <c r="E12" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -2276,8 +2790,11 @@
       <c r="E13" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
@@ -2293,8 +2810,11 @@
       <c r="E14" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -2310,8 +2830,11 @@
       <c r="E15" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
@@ -2327,8 +2850,11 @@
       <c r="E16" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
@@ -2344,8 +2870,11 @@
       <c r="E17" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -2361,8 +2890,11 @@
       <c r="E18" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -2378,8 +2910,11 @@
       <c r="E19" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2930,11 @@
       <c r="E20" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
@@ -2412,8 +2950,11 @@
       <c r="E21" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
@@ -2429,8 +2970,11 @@
       <c r="E22" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
@@ -2446,8 +2990,11 @@
       <c r="E23" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +3010,11 @@
       <c r="E24" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>33</v>
       </c>
@@ -2480,8 +3030,11 @@
       <c r="E25" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>34</v>
       </c>
@@ -2497,8 +3050,11 @@
       <c r="E26" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F26" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
@@ -2514,8 +3070,11 @@
       <c r="E27" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
@@ -2531,8 +3090,11 @@
       <c r="E28" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -2548,8 +3110,11 @@
       <c r="E29" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
@@ -2565,8 +3130,11 @@
       <c r="E30" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>40</v>
       </c>
@@ -2582,8 +3150,11 @@
       <c r="E31" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
@@ -2598,6 +3169,9 @@
       </c>
       <c r="E32" s="20">
         <v>3.25</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
@@ -2616,6 +3190,9 @@
       <c r="E33" s="20">
         <v>3.25</v>
       </c>
+      <c r="F33" s="32" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
@@ -2633,6 +3210,9 @@
       <c r="E34" s="20">
         <v>3.25</v>
       </c>
+      <c r="F34" s="32" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
@@ -2650,6 +3230,9 @@
       <c r="E35" s="20">
         <v>3.58</v>
       </c>
+      <c r="F35" s="32" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
@@ -2667,6 +3250,9 @@
       <c r="E36" s="20">
         <v>3.25</v>
       </c>
+      <c r="F36" s="32" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
@@ -2684,6 +3270,9 @@
       <c r="E37" s="20">
         <v>3.25</v>
       </c>
+      <c r="F37" s="32" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
@@ -2701,6 +3290,9 @@
       <c r="E38" s="20">
         <v>3.25</v>
       </c>
+      <c r="F38" s="32" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
@@ -2718,7 +3310,9 @@
       <c r="E39" s="20">
         <v>3.25</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="32" t="s">
+        <v>353</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2746,6 +3340,9 @@
       <c r="E40" s="20">
         <v>3.58</v>
       </c>
+      <c r="F40" s="32" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
@@ -2763,6 +3360,9 @@
       <c r="E41" s="20">
         <v>3.58</v>
       </c>
+      <c r="F41" s="32" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
@@ -2780,6 +3380,9 @@
       <c r="E42" s="20">
         <v>3.58</v>
       </c>
+      <c r="F42" s="32" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
@@ -2797,6 +3400,9 @@
       <c r="E43" s="20">
         <v>3.25</v>
       </c>
+      <c r="F43" s="32" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
@@ -2814,6 +3420,9 @@
       <c r="E44" s="20">
         <v>3.58</v>
       </c>
+      <c r="F44" s="32" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
@@ -2831,6 +3440,9 @@
       <c r="E45" s="20">
         <v>3.58</v>
       </c>
+      <c r="F45" s="32" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
@@ -2848,6 +3460,9 @@
       <c r="E46" s="20">
         <v>3.25</v>
       </c>
+      <c r="F46" s="32" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
@@ -2865,6 +3480,9 @@
       <c r="E47" s="20">
         <v>3.58</v>
       </c>
+      <c r="F47" s="32" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
@@ -2882,8 +3500,11 @@
       <c r="E48" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F48" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>65</v>
       </c>
@@ -2899,8 +3520,11 @@
       <c r="E49" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F49" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>67</v>
       </c>
@@ -2916,8 +3540,11 @@
       <c r="E50" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F50" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>69</v>
       </c>
@@ -2933,8 +3560,11 @@
       <c r="E51" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F51" s="32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
         <v>70</v>
       </c>
@@ -2950,8 +3580,11 @@
       <c r="E52" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F52" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="16" t="s">
         <v>71</v>
       </c>
@@ -2967,8 +3600,11 @@
       <c r="E53" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F53" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
         <v>72</v>
       </c>
@@ -2984,8 +3620,11 @@
       <c r="E54" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F54" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
         <v>73</v>
       </c>
@@ -3001,8 +3640,11 @@
       <c r="E55" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F55" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="16" t="s">
         <v>74</v>
       </c>
@@ -3018,8 +3660,11 @@
       <c r="E56" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F56" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="16" t="s">
         <v>76</v>
       </c>
@@ -3035,8 +3680,11 @@
       <c r="E57" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F57" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="16" t="s">
         <v>77</v>
       </c>
@@ -3052,8 +3700,11 @@
       <c r="E58" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F58" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="16" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3720,11 @@
       <c r="E59" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F59" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="16" t="s">
         <v>80</v>
       </c>
@@ -3086,8 +3740,11 @@
       <c r="E60" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F60" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="16" t="s">
         <v>82</v>
       </c>
@@ -3103,8 +3760,11 @@
       <c r="E61" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F61" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="16" t="s">
         <v>84</v>
       </c>
@@ -3120,8 +3780,11 @@
       <c r="E62" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F62" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="16" t="s">
         <v>86</v>
       </c>
@@ -3137,8 +3800,11 @@
       <c r="E63" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F63" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="16" t="s">
         <v>87</v>
       </c>
@@ -3154,8 +3820,11 @@
       <c r="E64" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F64" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="16" t="s">
         <v>88</v>
       </c>
@@ -3171,8 +3840,11 @@
       <c r="E65" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F65" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
         <v>90</v>
       </c>
@@ -3188,8 +3860,11 @@
       <c r="E66" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F66" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="16" t="s">
         <v>91</v>
       </c>
@@ -3205,8 +3880,11 @@
       <c r="E67" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F67" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="16" t="s">
         <v>93</v>
       </c>
@@ -3222,8 +3900,11 @@
       <c r="E68" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="16" t="s">
         <v>95</v>
       </c>
@@ -3239,8 +3920,11 @@
       <c r="E69" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="16" t="s">
         <v>97</v>
       </c>
@@ -3256,8 +3940,11 @@
       <c r="E70" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F70" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="16" t="s">
         <v>99</v>
       </c>
@@ -3273,8 +3960,11 @@
       <c r="E71" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F71" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
         <v>100</v>
       </c>
@@ -3290,8 +3980,11 @@
       <c r="E72" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F72" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="16" t="s">
         <v>102</v>
       </c>
@@ -3307,8 +4000,11 @@
       <c r="E73" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F73" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="16" t="s">
         <v>104</v>
       </c>
@@ -3324,8 +4020,11 @@
       <c r="E74" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F74" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="16" t="s">
         <v>105</v>
       </c>
@@ -3341,8 +4040,11 @@
       <c r="E75" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F75" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="16" t="s">
         <v>106</v>
       </c>
@@ -3358,8 +4060,11 @@
       <c r="E76" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F76" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="16" t="s">
         <v>107</v>
       </c>
@@ -3375,8 +4080,11 @@
       <c r="E77" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
         <v>108</v>
       </c>
@@ -3392,8 +4100,11 @@
       <c r="E78" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
         <v>109</v>
       </c>
@@ -3409,8 +4120,11 @@
       <c r="E79" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F79" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="16" t="s">
         <v>110</v>
       </c>
@@ -3426,8 +4140,11 @@
       <c r="E80" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F80" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
         <v>112</v>
       </c>
@@ -3443,8 +4160,11 @@
       <c r="E81" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F81" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="16" t="s">
         <v>113</v>
       </c>
@@ -3460,8 +4180,11 @@
       <c r="E82" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F82" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="16" t="s">
         <v>114</v>
       </c>
@@ -3477,8 +4200,11 @@
       <c r="E83" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F83" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="16" t="s">
         <v>116</v>
       </c>
@@ -3494,8 +4220,11 @@
       <c r="E84" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F84" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="16" t="s">
         <v>117</v>
       </c>
@@ -3511,8 +4240,11 @@
       <c r="E85" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F85" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="16" t="s">
         <v>118</v>
       </c>
@@ -3528,8 +4260,11 @@
       <c r="E86" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F86" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="16" t="s">
         <v>119</v>
       </c>
@@ -3545,8 +4280,11 @@
       <c r="E87" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F87" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="16" t="s">
         <v>121</v>
       </c>
@@ -3562,8 +4300,11 @@
       <c r="E88" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F88" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="16" t="s">
         <v>123</v>
       </c>
@@ -3579,8 +4320,11 @@
       <c r="E89" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F89" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="16" t="s">
         <v>124</v>
       </c>
@@ -3596,8 +4340,11 @@
       <c r="E90" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F90" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="16" t="s">
         <v>125</v>
       </c>
@@ -3613,8 +4360,11 @@
       <c r="E91" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F91" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="16" t="s">
         <v>127</v>
       </c>
@@ -3630,8 +4380,11 @@
       <c r="E92" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F92" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="16" t="s">
         <v>128</v>
       </c>
@@ -3647,8 +4400,11 @@
       <c r="E93" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F93" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="16" t="s">
         <v>129</v>
       </c>
@@ -3664,8 +4420,11 @@
       <c r="E94" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F94" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="16" t="s">
         <v>130</v>
       </c>
@@ -3681,8 +4440,11 @@
       <c r="E95" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F95" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="16" t="s">
         <v>131</v>
       </c>
@@ -3698,8 +4460,11 @@
       <c r="E96" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F96" s="32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="16" t="s">
         <v>132</v>
       </c>
@@ -3715,8 +4480,11 @@
       <c r="E97" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F97" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="16" t="s">
         <v>133</v>
       </c>
@@ -3732,8 +4500,11 @@
       <c r="E98" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F98" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="16" t="s">
         <v>134</v>
       </c>
@@ -3749,8 +4520,11 @@
       <c r="E99" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F99" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="16" t="s">
         <v>135</v>
       </c>
@@ -3766,8 +4540,11 @@
       <c r="E100" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F100" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="16" t="s">
         <v>137</v>
       </c>
@@ -3783,8 +4560,11 @@
       <c r="E101" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F101" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="16" t="s">
         <v>139</v>
       </c>
@@ -3800,8 +4580,11 @@
       <c r="E102" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F102" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="16" t="s">
         <v>141</v>
       </c>
@@ -3817,8 +4600,11 @@
       <c r="E103" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F103" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="16" t="s">
         <v>143</v>
       </c>
@@ -3834,8 +4620,11 @@
       <c r="E104" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F104" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
         <v>144</v>
       </c>
@@ -3851,8 +4640,11 @@
       <c r="E105" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F105" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="16" t="s">
         <v>145</v>
       </c>
@@ -3868,8 +4660,11 @@
       <c r="E106" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F106" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="16" t="s">
         <v>146</v>
       </c>
@@ -3885,8 +4680,11 @@
       <c r="E107" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F107" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="16" t="s">
         <v>147</v>
       </c>
@@ -3902,8 +4700,11 @@
       <c r="E108" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F108" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="16" t="s">
         <v>148</v>
       </c>
@@ -3919,8 +4720,11 @@
       <c r="E109" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F109" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="16" t="s">
         <v>150</v>
       </c>
@@ -3936,8 +4740,11 @@
       <c r="E110" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F110" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="16" t="s">
         <v>151</v>
       </c>
@@ -3953,8 +4760,11 @@
       <c r="E111" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F111" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="16" t="s">
         <v>152</v>
       </c>
@@ -3970,8 +4780,11 @@
       <c r="E112" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F112" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="16" t="s">
         <v>153</v>
       </c>
@@ -3987,8 +4800,11 @@
       <c r="E113" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F113" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="16" t="s">
         <v>154</v>
       </c>
@@ -4004,8 +4820,11 @@
       <c r="E114" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F114" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="16" t="s">
         <v>156</v>
       </c>
@@ -4021,8 +4840,11 @@
       <c r="E115" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F115" s="32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="26" t="s">
         <v>157</v>
       </c>
@@ -4038,8 +4860,11 @@
       <c r="E116" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F116" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="16" t="s">
         <v>159</v>
       </c>
@@ -4055,8 +4880,11 @@
       <c r="E117" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F117" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="16" t="s">
         <v>161</v>
       </c>
@@ -4072,8 +4900,11 @@
       <c r="E118" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F118" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="16" t="s">
         <v>163</v>
       </c>
@@ -4089,8 +4920,11 @@
       <c r="E119" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F119" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="16" t="s">
         <v>164</v>
       </c>
@@ -4106,8 +4940,11 @@
       <c r="E120" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F120" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="16" t="s">
         <v>165</v>
       </c>
@@ -4123,8 +4960,11 @@
       <c r="E121" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F121" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="16" t="s">
         <v>166</v>
       </c>
@@ -4140,8 +4980,11 @@
       <c r="E122" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F122" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="16" t="s">
         <v>167</v>
       </c>
@@ -4157,8 +5000,11 @@
       <c r="E123" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F123" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="16" t="s">
         <v>169</v>
       </c>
@@ -4174,8 +5020,11 @@
       <c r="E124" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F124" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="16" t="s">
         <v>171</v>
       </c>
@@ -4191,8 +5040,11 @@
       <c r="E125" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F125" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="16" t="s">
         <v>172</v>
       </c>
@@ -4208,8 +5060,11 @@
       <c r="E126" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F126" s="32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="16" t="s">
         <v>174</v>
       </c>
@@ -4225,8 +5080,11 @@
       <c r="E127" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F127" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="16" t="s">
         <v>176</v>
       </c>
@@ -4242,8 +5100,11 @@
       <c r="E128" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F128" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="16" t="s">
         <v>178</v>
       </c>
@@ -4259,8 +5120,11 @@
       <c r="E129" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F129" s="32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="16" t="s">
         <v>180</v>
       </c>
@@ -4276,8 +5140,11 @@
       <c r="E130" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F130" s="32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="16" t="s">
         <v>181</v>
       </c>
@@ -4293,8 +5160,11 @@
       <c r="E131" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F131" s="32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="16" t="s">
         <v>182</v>
       </c>
@@ -4310,8 +5180,11 @@
       <c r="E132" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F132" s="32" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="16" t="s">
         <v>183</v>
       </c>
@@ -4327,8 +5200,11 @@
       <c r="E133" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F133" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="16" t="s">
         <v>184</v>
       </c>
@@ -4344,8 +5220,11 @@
       <c r="E134" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F134" s="32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="16" t="s">
         <v>185</v>
       </c>
@@ -4361,8 +5240,11 @@
       <c r="E135" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F135" s="32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="16" t="s">
         <v>186</v>
       </c>
@@ -4378,8 +5260,11 @@
       <c r="E136" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F136" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="16" t="s">
         <v>187</v>
       </c>
@@ -4395,8 +5280,11 @@
       <c r="E137" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F137" s="32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="16" t="s">
         <v>188</v>
       </c>
@@ -4412,8 +5300,11 @@
       <c r="E138" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F138" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="16" t="s">
         <v>190</v>
       </c>
@@ -4429,8 +5320,11 @@
       <c r="E139" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="F139" s="32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A140" s="16" t="s">
         <v>191</v>
       </c>
@@ -4446,8 +5340,11 @@
       <c r="E140" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F140" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="16" t="s">
         <v>193</v>
       </c>
@@ -4463,8 +5360,11 @@
       <c r="E141" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F141" s="32" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="16" t="s">
         <v>194</v>
       </c>
@@ -4480,8 +5380,11 @@
       <c r="E142" s="20">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F142" s="32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="16" t="s">
         <v>196</v>
       </c>
@@ -4497,8 +5400,11 @@
       <c r="E143" s="20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F143" s="32" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="16" t="s">
         <v>198</v>
       </c>
@@ -4513,6 +5419,9 @@
       </c>
       <c r="E144" s="20">
         <v>3.25</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="17.25" x14ac:dyDescent="0.45">
@@ -4531,6 +5440,9 @@
       <c r="E145" s="20">
         <v>3.58</v>
       </c>
+      <c r="F145" s="32" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="146" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="16" t="s">
@@ -4548,6 +5460,9 @@
       <c r="E146" s="20">
         <v>3.25</v>
       </c>
+      <c r="F146" s="32" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="147" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="16" t="s">
@@ -4565,6 +5480,9 @@
       <c r="E147" s="20">
         <v>3.58</v>
       </c>
+      <c r="F147" s="32" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="148" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="16" t="s">
@@ -4582,6 +5500,9 @@
       <c r="E148" s="20">
         <v>3.58</v>
       </c>
+      <c r="F148" s="32" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="149" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="16" t="s">
@@ -4599,6 +5520,9 @@
       <c r="E149" s="20">
         <v>3.25</v>
       </c>
+      <c r="F149" s="32" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="150" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="16" t="s">
@@ -4616,6 +5540,9 @@
       <c r="E150" s="20">
         <v>3.58</v>
       </c>
+      <c r="F150" s="32" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="151" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="16" t="s">
@@ -4633,6 +5560,9 @@
       <c r="E151" s="20">
         <v>3.58</v>
       </c>
+      <c r="F151" s="32" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="152" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="16" t="s">
@@ -4650,6 +5580,9 @@
       <c r="E152" s="20">
         <v>3.58</v>
       </c>
+      <c r="F152" s="32" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="153" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="16" t="s">
@@ -4667,6 +5600,9 @@
       <c r="E153" s="20">
         <v>3.58</v>
       </c>
+      <c r="F153" s="32" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="154" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="16" t="s">
@@ -4684,6 +5620,9 @@
       <c r="E154" s="20">
         <v>3.25</v>
       </c>
+      <c r="F154" s="32" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="155" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="16" t="s">
@@ -4701,6 +5640,9 @@
       <c r="E155" s="20">
         <v>3.25</v>
       </c>
+      <c r="F155" s="32" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="156" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="16" t="s">
@@ -4718,6 +5660,9 @@
       <c r="E156" s="20">
         <v>3.25</v>
       </c>
+      <c r="F156" s="32" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="157" spans="1:16" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="16" t="s">
@@ -4735,7 +5680,9 @@
       <c r="E157" s="20">
         <v>3.25</v>
       </c>
-      <c r="F157" s="1"/>
+      <c r="F157" s="32" t="s">
+        <v>471</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -4747,16 +5694,18 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B159" s="10"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="12"/>
     </row>

--- a/src/Samples/AppDetails.xlsx
+++ b/src/Samples/AppDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E50D00-915F-4EC5-A1E3-6865D54228BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCBAF1-59AF-4E9C-8BB3-16769D418942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="total" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$2:$P$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$2:$P$157</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">total!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="472">
   <si>
     <t xml:space="preserve">Apartment No. </t>
   </si>
@@ -45,9 +45,48 @@
     <t>Customer Name</t>
   </si>
   <si>
+    <t>OC-I/A-001</t>
+  </si>
+  <si>
+    <t>OC-I/B-001</t>
+  </si>
+  <si>
+    <t>OC-I/A-101</t>
+  </si>
+  <si>
+    <t>SANDEEP GAUTAM / NUPUR GAUTAM</t>
+  </si>
+  <si>
+    <t>OC-I/B-101</t>
+  </si>
+  <si>
     <t>OC-I/A-201</t>
   </si>
   <si>
+    <t>OC-I/B-201</t>
+  </si>
+  <si>
+    <t>OC-I/A-301</t>
+  </si>
+  <si>
+    <t>OC-I/B-301</t>
+  </si>
+  <si>
+    <t>OC-I/A-401</t>
+  </si>
+  <si>
+    <t>OC-I/B-401</t>
+  </si>
+  <si>
+    <t>OC-I/A-501</t>
+  </si>
+  <si>
+    <t>OC-I/B-501</t>
+  </si>
+  <si>
+    <t>TOOLIKA BHARGAVA</t>
+  </si>
+  <si>
     <t>OC-I/A-601</t>
   </si>
   <si>
@@ -63,42 +102,726 @@
     <t>OC-I/B-701</t>
   </si>
   <si>
+    <t>OC-I/A-801</t>
+  </si>
+  <si>
+    <t>MUKTA KAURA</t>
+  </si>
+  <si>
+    <t>OC-I/B-801</t>
+  </si>
+  <si>
+    <t>ANSHU GUPTA &amp; MAMTA AGARWAL</t>
+  </si>
+  <si>
+    <t>OC-I/A-901</t>
+  </si>
+  <si>
+    <t>SISIR GUPTA</t>
+  </si>
+  <si>
+    <t>OC-I/B-901</t>
+  </si>
+  <si>
+    <t>SIDDHARTH GUPTA / SHARDA GUPTA</t>
+  </si>
+  <si>
+    <t>OC-I/A-1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHPENDER KHANDPUR </t>
+  </si>
+  <si>
+    <t>OC-I/B-1001</t>
+  </si>
+  <si>
+    <t>OC-I/A-1101</t>
+  </si>
+  <si>
+    <t>OC-I/B-1101</t>
+  </si>
+  <si>
+    <t>OC-I/A-12-1301</t>
+  </si>
+  <si>
+    <t>OC-I/B-12-1301</t>
+  </si>
+  <si>
+    <t>OC-II/A-001</t>
+  </si>
+  <si>
+    <t>OC-II/B-001</t>
+  </si>
+  <si>
+    <t>OC-II/A-101</t>
+  </si>
+  <si>
+    <t>VARUN SHARMA &amp; MALA SHARMA</t>
+  </si>
+  <si>
+    <t>OC-II/B-101</t>
+  </si>
+  <si>
+    <t>VISHWAS UDGIRKAR / MANJUSHA UDGIRKAR</t>
+  </si>
+  <si>
+    <t>OC-II/A-201</t>
+  </si>
+  <si>
+    <t>OC-II/B-201</t>
+  </si>
+  <si>
+    <t>OC-II/A-301</t>
+  </si>
+  <si>
+    <t>OC-II/B-301</t>
+  </si>
+  <si>
+    <t>OC-II/A-401</t>
+  </si>
+  <si>
+    <t>OC-II/B-401</t>
+  </si>
+  <si>
+    <t>OC-II/A-501</t>
+  </si>
+  <si>
+    <t>OC-II/B-501</t>
+  </si>
+  <si>
+    <t>RAJESH MALIK</t>
+  </si>
+  <si>
+    <t>OC-II/A-601</t>
+  </si>
+  <si>
+    <t>OC-II/B-601</t>
+  </si>
+  <si>
+    <t>DR.SUMAN KANWAR &amp; RAKESH KANWAR</t>
+  </si>
+  <si>
+    <t>OC-II/A-701</t>
+  </si>
+  <si>
+    <t>OC-II/B-701</t>
+  </si>
+  <si>
+    <t>MAC CHOPRA &amp; ISHU CHOPRA</t>
+  </si>
+  <si>
+    <t>OC-II/A-801</t>
+  </si>
+  <si>
+    <t>UDIT MEHROTRA &amp; REEMA MEHRA</t>
+  </si>
+  <si>
+    <t>OC-II/B-801</t>
+  </si>
+  <si>
+    <t>PRAVIN KUMAR AGARWAL / ASHIMA AGARWAL</t>
+  </si>
+  <si>
+    <t>OC-II/A-901</t>
+  </si>
+  <si>
+    <t>OC-II/B-901</t>
+  </si>
+  <si>
+    <t>OC-II/A-1001</t>
+  </si>
+  <si>
+    <t>M/S CELLCAP INVOFIN INDIA PVT. LTD.</t>
+  </si>
+  <si>
+    <t>OC-II/B-1001</t>
+  </si>
+  <si>
+    <t>PRAKASH KUMAR MANSHARAMANI</t>
+  </si>
+  <si>
+    <t>OC-II/A-1101</t>
+  </si>
+  <si>
+    <t>ATUL KHANNA &amp; JANAKI KHANNA</t>
+  </si>
+  <si>
+    <t>OC-II/B-1101</t>
+  </si>
+  <si>
+    <t>OC-II/A-12-1301</t>
+  </si>
+  <si>
+    <t>OC-II/B-12-1301</t>
+  </si>
+  <si>
+    <t>OC-III/A-001</t>
+  </si>
+  <si>
+    <t>OC-III/B-001</t>
+  </si>
+  <si>
+    <t>OC-III/A-101</t>
+  </si>
+  <si>
+    <t>SUNNY AHUJA</t>
+  </si>
+  <si>
+    <t>OC-III/B-101</t>
+  </si>
+  <si>
+    <t>OC-III/A-201</t>
+  </si>
+  <si>
+    <t>SANJEEV SIHAG &amp; MONA SIHAG</t>
+  </si>
+  <si>
+    <t>OC-III/B-201</t>
+  </si>
+  <si>
+    <t>OC-III/A-301</t>
+  </si>
+  <si>
+    <t>VINOD KUMAR GUPTA / VINAY GUPTA</t>
+  </si>
+  <si>
+    <t>OC-III/B-301</t>
+  </si>
+  <si>
+    <t>SAVITA SURI &amp; RAJPAUL SURI</t>
+  </si>
+  <si>
+    <t>OC-III/A-401</t>
+  </si>
+  <si>
+    <t>SANJAY JAIN &amp; SHUBHRA JAIN</t>
+  </si>
+  <si>
+    <t>OC-III/B-401</t>
+  </si>
+  <si>
+    <t>OC-III/A-501</t>
+  </si>
+  <si>
+    <t>OC-III/B-501</t>
+  </si>
+  <si>
+    <t>SATINDER SINGH CHADHA &amp; HARVINDER SINGH CHADHA</t>
+  </si>
+  <si>
+    <t>OC-III/A-601</t>
+  </si>
+  <si>
+    <t>OC-III/B-601</t>
+  </si>
+  <si>
+    <t>EKTA MANGAL</t>
+  </si>
+  <si>
+    <t>OC-III/A-701</t>
+  </si>
+  <si>
+    <t>VAIBBHAV GOEL</t>
+  </si>
+  <si>
+    <t>OC-III/B-701</t>
+  </si>
+  <si>
+    <t>AMIT GUPTA</t>
+  </si>
+  <si>
+    <t>OC-III/A-801</t>
+  </si>
+  <si>
+    <t>KULVINDER SINGH KOHLI</t>
+  </si>
+  <si>
+    <t>OC-III/B-801</t>
+  </si>
+  <si>
+    <t>OC-III/A-901</t>
+  </si>
+  <si>
+    <t>VIJAY KUMAR SANGHI (HUF)</t>
+  </si>
+  <si>
+    <t>OC-III/B-901</t>
+  </si>
+  <si>
+    <t>SURENDER KUMAR GUPTA</t>
+  </si>
+  <si>
     <t>OC-III/A-1001</t>
   </si>
   <si>
+    <t>OC-III/B-1001</t>
+  </si>
+  <si>
+    <t>OC-III/A-1101</t>
+  </si>
+  <si>
+    <t>OC-III/B-1101</t>
+  </si>
+  <si>
+    <t>OC-III/A-12/1301</t>
+  </si>
+  <si>
+    <t>OC-III/B-12/1301</t>
+  </si>
+  <si>
+    <t>OC-IV/A-001</t>
+  </si>
+  <si>
+    <t>POONAM KUMAR / PRAVEEN KUMAR</t>
+  </si>
+  <si>
+    <t>OC-IV/B-001</t>
+  </si>
+  <si>
+    <t>OC-IV/A-101</t>
+  </si>
+  <si>
+    <t>OC-IV/B-101</t>
+  </si>
+  <si>
+    <t>SACHIN GUPTA / ARUN GUPTA</t>
+  </si>
+  <si>
+    <t>OC-IV/A-201</t>
+  </si>
+  <si>
+    <t>OC-IV/B-201</t>
+  </si>
+  <si>
     <t>OC-IV/A-301</t>
   </si>
   <si>
+    <t>OC-IV/B-301</t>
+  </si>
+  <si>
+    <t>ROSHAN LAL</t>
+  </si>
+  <si>
+    <t>OC-IV/A-401</t>
+  </si>
+  <si>
+    <t>ALKA DHINGRA &amp; JITENDRA DHINGRA</t>
+  </si>
+  <si>
+    <t>OC-IV/B-401</t>
+  </si>
+  <si>
+    <t>OC-IV/A-501</t>
+  </si>
+  <si>
+    <t>OC-IV/B-501</t>
+  </si>
+  <si>
+    <t>SARJIT SODHI / DARSHAN SINGH SODHI</t>
+  </si>
+  <si>
     <t>OC-IV/A-601</t>
   </si>
   <si>
+    <t>OC-IV/B-601</t>
+  </si>
+  <si>
+    <t>OC-IV/A-701</t>
+  </si>
+  <si>
+    <t>OC-IV/B-701</t>
+  </si>
+  <si>
+    <t>OC-IV/A-801</t>
+  </si>
+  <si>
+    <t>OC-IV/B-801</t>
+  </si>
+  <si>
+    <t>OC-IV/A-901</t>
+  </si>
+  <si>
+    <t>OC-IV/B-901</t>
+  </si>
+  <si>
+    <t>OC-IV/A-1001</t>
+  </si>
+  <si>
+    <t>RAKESH DADA</t>
+  </si>
+  <si>
+    <t>OC-IV/B-1001</t>
+  </si>
+  <si>
+    <t>BHUPENDER SINGH</t>
+  </si>
+  <si>
+    <t>OC-IV/A-1101</t>
+  </si>
+  <si>
+    <t>SUNIL KUMAR BANSAL &amp; POONAM BANSAL</t>
+  </si>
+  <si>
+    <t>OC-IV/B-1101</t>
+  </si>
+  <si>
+    <t>NEPSTAR PROPERTIES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>OC-IV/A-12&amp;1301</t>
+  </si>
+  <si>
+    <t>OC-IV/B-12-1301</t>
+  </si>
+  <si>
+    <t>OC-V/A-001</t>
+  </si>
+  <si>
+    <t>OC-V/B-001</t>
+  </si>
+  <si>
+    <t>OC-V/A-101</t>
+  </si>
+  <si>
+    <t>OC-V/B-101</t>
+  </si>
+  <si>
+    <t>RADHIKA BHUSHAN &amp; ROHINI BHUSHAN</t>
+  </si>
+  <si>
+    <t>OC-V/A-201</t>
+  </si>
+  <si>
+    <t>OC-V/B-201</t>
+  </si>
+  <si>
+    <t>OC-V/A-301</t>
+  </si>
+  <si>
+    <t>OC-V/B-301</t>
+  </si>
+  <si>
+    <t>OC-V/A-401</t>
+  </si>
+  <si>
+    <t>DR. FEROZE AHSAN YUSUFJI &amp; MRS. PARVEEN YUSUF JI</t>
+  </si>
+  <si>
+    <t>OC-V/B-401</t>
+  </si>
+  <si>
+    <t>OC-V/A-501</t>
+  </si>
+  <si>
+    <t>SURINDER MOHAN ARORA</t>
+  </si>
+  <si>
+    <t>OC-V/B-501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILA DAVAR / ANJU BADHWAR / PIYUSH DUDEJA </t>
+  </si>
+  <si>
+    <t>OC-V/A-601</t>
+  </si>
+  <si>
+    <t>MEHER M. BHARUCHA</t>
+  </si>
+  <si>
+    <t>OC-V/B-601</t>
+  </si>
+  <si>
+    <t>OC-V/A-701</t>
+  </si>
+  <si>
+    <t>OC-V/B-701</t>
+  </si>
+  <si>
+    <t>OC-V/A-801</t>
+  </si>
+  <si>
+    <t>OC-V/B-801</t>
+  </si>
+  <si>
+    <t>BRIJESH ARORA &amp; RITU ARORA</t>
+  </si>
+  <si>
+    <t>OC-V/A-901</t>
+  </si>
+  <si>
+    <t>VINOD KUMAR SOOD</t>
+  </si>
+  <si>
+    <t>OC-V/B-901</t>
+  </si>
+  <si>
+    <t>OC-V/A-1001</t>
+  </si>
+  <si>
+    <t>SUSHILMRIG</t>
+  </si>
+  <si>
+    <t>OC-V/B-1001</t>
+  </si>
+  <si>
+    <t>SANJAY KHANNA &amp; PREETI KHANNA</t>
+  </si>
+  <si>
+    <t>OC-V/A-1101</t>
+  </si>
+  <si>
+    <t>GANESH CHANDER MRIG</t>
+  </si>
+  <si>
+    <t>OC-V/B-1101</t>
+  </si>
+  <si>
+    <t>DR. RAJESH CHANDNA &amp; MRS. ANUPAMA CHANDNA</t>
+  </si>
+  <si>
+    <t>OC-V/A-12-1301</t>
+  </si>
+  <si>
+    <t>OC-V/B-12-1301</t>
+  </si>
+  <si>
+    <t>OC-VI/A-001</t>
+  </si>
+  <si>
+    <t>OC-VI/B-001</t>
+  </si>
+  <si>
+    <t>OC-VI/A-101</t>
+  </si>
+  <si>
+    <t>OC-VI/B-101</t>
+  </si>
+  <si>
+    <t>OC-VI/A-201</t>
+  </si>
+  <si>
+    <t>OC-VI/B-201</t>
+  </si>
+  <si>
+    <t>OC-VI/A-301</t>
+  </si>
+  <si>
+    <t>BALENDU GOPAL RAWAT</t>
+  </si>
+  <si>
+    <t>OC-VI/B-301</t>
+  </si>
+  <si>
+    <t>OC-VI/A-401</t>
+  </si>
+  <si>
+    <t>ER.PARAMJEET SINGH / AVINASH KOUR</t>
+  </si>
+  <si>
+    <t>OC-VI/B-401</t>
+  </si>
+  <si>
+    <t>OC-VI/A-501</t>
+  </si>
+  <si>
+    <t>SHOBHA JAIN</t>
+  </si>
+  <si>
+    <t>OC-VI/B-501</t>
+  </si>
+  <si>
+    <t>S.CHANDRASEKHAR / SANKARI CHANDRASEKHAR</t>
+  </si>
+  <si>
+    <t>OC-VI/A-601</t>
+  </si>
+  <si>
+    <t>OC-VI/B-601</t>
+  </si>
+  <si>
+    <t>DEEPAK CHANDHOK / ANITA CHANDHOK</t>
+  </si>
+  <si>
+    <t>OC-VI/A-701</t>
+  </si>
+  <si>
+    <t>OC-VI/B-701</t>
+  </si>
+  <si>
+    <t>SHRI BHAGWAN &amp; SONS BUILDERS P LTD</t>
+  </si>
+  <si>
+    <t>OC-VI/A-801</t>
+  </si>
+  <si>
+    <t>SUMAN TYAGI</t>
+  </si>
+  <si>
+    <t>OC-VI/B-801</t>
+  </si>
+  <si>
+    <t>YOG RAJ KHATTAR</t>
+  </si>
+  <si>
     <t>OC-VI/A-901</t>
   </si>
   <si>
+    <t>SABIHA HUSAIN / ANIQ HUSAIN</t>
+  </si>
+  <si>
+    <t>OC-VI/B-901</t>
+  </si>
+  <si>
+    <t>NIRMALCHAWLA</t>
+  </si>
+  <si>
+    <t>OC-VI/A-1001</t>
+  </si>
+  <si>
+    <t>KAMLESH ARORA / KRISHAN KUMAR ARORA</t>
+  </si>
+  <si>
+    <t>OC-VI/B-1001</t>
+  </si>
+  <si>
+    <t>REKHA JAIN</t>
+  </si>
+  <si>
     <t>OC-VI/A-1101</t>
   </si>
   <si>
     <t>OC-VI/B-1101</t>
   </si>
   <si>
+    <t>OC-VI/A-12-1301</t>
+  </si>
+  <si>
     <t>OC-VI/B-12-1301</t>
   </si>
   <si>
+    <t>NIDHI SETH / NEERU SETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMTA AGARWAL / ANUSHUMAN AGARWAL </t>
+  </si>
+  <si>
     <t>SONAL AGRAWAL / AMIT KUMAR AGRAWAL / KAILASH CHANDRA AGRAWAL</t>
   </si>
   <si>
+    <t>MANISH DHOOT</t>
+  </si>
+  <si>
+    <t>SURESH KUMAR CHHABRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHUPENDER SINGH </t>
+  </si>
+  <si>
+    <t>NIRMAL PARKASH SHARMA</t>
+  </si>
+  <si>
+    <t>ANAND PARKASH BANSAL &amp; AVINASH BANSAL</t>
+  </si>
+  <si>
+    <t>JAYH BUILDTECH PVT. LTD.</t>
+  </si>
+  <si>
+    <t>MADHULIKA LAMBA &amp; ANKIT LAMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL. JAGDEV SINGH / MRS. KANTA SINGH </t>
+  </si>
+  <si>
+    <t>PARAMVEER RATHI</t>
+  </si>
+  <si>
+    <t>ARUN MATHUR / ANUSHREE MATHUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIL KHANDELWAL / LATA KHANDEWAL </t>
+  </si>
+  <si>
+    <t>SALONI PASRICHA / SANJOY PASRICHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRS. JASMEET UBEROI </t>
+  </si>
+  <si>
     <t>SUDHIR MALHAUTRA / RENU MALHAUTRA / CHIRAG MALHAUTRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SANDEEP MALHOTRA </t>
+  </si>
+  <si>
+    <t>VIJAYA KUMARI SINHA</t>
+  </si>
+  <si>
+    <t>SAURABH THUKRAL / DIPTI KAKKAR THUKRAL</t>
+  </si>
+  <si>
+    <t>GOPAL TIWARI / RAHUL TIWARI</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMT. SIMRITA KAMRA / MS PARUL KAMRA / MS GITANJALI  </t>
   </si>
   <si>
     <t xml:space="preserve">MR. BALENDU GOPAL RAWAT / MRS. NATASHA RAWAT / MR. MANBAR SINGH RAWAT </t>
   </si>
   <si>
+    <t>KIRAN BALA CHOPRA &amp; ACHAL CHOPRA</t>
+  </si>
+  <si>
+    <t>ABHEY BIR / PUNIKA CHATURVEDI</t>
+  </si>
+  <si>
+    <t>MEENAKSHI SINGH / RAM KUMAR SHEOKAND</t>
+  </si>
+  <si>
+    <t>VINITA AGARWAL / SURESH CHANDRA AGARWAL</t>
+  </si>
+  <si>
+    <t>SHASHWAT TEWARY / SUSHMA TEWARY</t>
+  </si>
+  <si>
+    <t>DR. VIKAS GIRDHAR / MRS. SANGEETA GIRDHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. MANISH DUREJA </t>
+  </si>
+  <si>
+    <t>GP.CAPT.RAMAN BADHWAR /ANJU BADHWAR</t>
+  </si>
+  <si>
+    <t>GEETA BAKSHI</t>
+  </si>
+  <si>
+    <t>SHASHI JAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARVIND GULATI / MRS. KANWALJEET KAUR GULATI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANURAG JAIN / MITU JAIN  </t>
+  </si>
+  <si>
+    <t>ADITYA PIPERSENIA / SUMAN PIPERSENIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIJIT BHATTACHARJEE / JAYITA BHATTACHARYYA </t>
   </si>
   <si>
+    <t xml:space="preserve">AMIT GOYAL  / ALKA GOYAL  </t>
+  </si>
+  <si>
+    <t>YOGESH KAPOOR / JAYATI KAPOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDHIR MALHAUTRA / ANKITA MALHAUTRA </t>
+  </si>
+  <si>
+    <t>MADHU VEENA JAIN &amp; GAURAV JAIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRS. MEERA SINHA / MR. SHAILENDRA KUMAR SINHA / MRS. NEETI MAHAJAN </t>
   </si>
   <si>
@@ -108,15 +831,138 @@
     <t xml:space="preserve">MRS. SANGITA PANDEY / MR. PRAVEEN KUMAR PANDEY </t>
   </si>
   <si>
+    <t>VINAY KUMARI GUPTA / PUSHPA GUPTA</t>
+  </si>
+  <si>
+    <t>MR. AMAR NATH GUPTA / MRS. PUSHPA GUPTA</t>
+  </si>
+  <si>
+    <t>MANISH MITTAL / ALKA MITTAL</t>
+  </si>
+  <si>
+    <t>MRS. SIKTA KAUL</t>
+  </si>
+  <si>
+    <t>DR. KAPIL SETIA</t>
+  </si>
+  <si>
+    <t>SAMEER SHARMA /ADITI GUPTA</t>
+  </si>
+  <si>
+    <t>ALOK MAHAJAN /NEETI MAHAJAN</t>
+  </si>
+  <si>
+    <t>MANJU PANDEY / VINOD KUMAR PANDE</t>
+  </si>
+  <si>
+    <t>SANDEEP MALHAUTRA / MONICA MALHAUTRA</t>
+  </si>
+  <si>
+    <t>SHOBHA JAIN / DEVENDER SARUP GUPTA</t>
+  </si>
+  <si>
+    <t>ANIL CHAUDHARY / MAYA CHAUDHARY</t>
+  </si>
+  <si>
+    <t>MANISH ARORA / ASHIMA ARORA</t>
+  </si>
+  <si>
     <t>BIMAL BANSAL / SIDDHARTH BANSAL / SAURABH BANSAL</t>
   </si>
   <si>
+    <t>TUKKA VAISH / ARUN VAISH</t>
+  </si>
+  <si>
+    <t>DIVYA MITTAL / ANKIT GOYAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDEEP YADAV / SHRMISTHA YADAV </t>
+  </si>
+  <si>
+    <t>RAVI KUMAR WADHWA / SUMAN WADHWA</t>
+  </si>
+  <si>
+    <t>ARCHANA THAKUR / JESSICA THAKUR</t>
+  </si>
+  <si>
+    <t>LALIT KAPUR / MEENU KAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PADMA SINGH</t>
+  </si>
+  <si>
+    <t>KANV BADHWAR / HASMITA RAJAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATUL JINDAL </t>
+  </si>
+  <si>
+    <t>TRIPTA  KHATTAR</t>
+  </si>
+  <si>
+    <t>VINOD KUMARI</t>
+  </si>
+  <si>
     <t>AKSHAT PIPERSENIA / APARNA PIPERSENIA / SUMAN PIPERSENIA</t>
   </si>
   <si>
     <t>Super Area</t>
   </si>
   <si>
+    <t>ATUL KUMAR</t>
+  </si>
+  <si>
+    <t>RAGHAV VIJ</t>
+  </si>
+  <si>
+    <t>ATUL SHERAWAT</t>
+  </si>
+  <si>
+    <t>MANISH PAHUJA</t>
+  </si>
+  <si>
+    <t>MAHENDER NATH</t>
+  </si>
+  <si>
+    <t>JITENDER PAL</t>
+  </si>
+  <si>
+    <t>PREETY SINGH</t>
+  </si>
+  <si>
+    <t>KAMINI VIJ / HEMANT VIJ</t>
+  </si>
+  <si>
+    <t>NIRMAL JONEGA</t>
+  </si>
+  <si>
+    <t>Rajesh Aggarwal</t>
+  </si>
+  <si>
+    <t>VIVEK KUMAR</t>
+  </si>
+  <si>
+    <t>SHAILENDER GUPTA / TANU GUPTA</t>
+  </si>
+  <si>
+    <t>LAVESH SETH / NANDITA SETH</t>
+  </si>
+  <si>
+    <t>VIVEK AGGARWAL</t>
+  </si>
+  <si>
+    <t>MOHINI BHASIN</t>
+  </si>
+  <si>
+    <t>SUDHANSHU CHADHA</t>
+  </si>
+  <si>
+    <t>RAMAN SONI</t>
+  </si>
+  <si>
+    <t>BHARAT RANA</t>
+  </si>
+  <si>
     <t>Resident Status</t>
   </si>
   <si>
@@ -126,15 +972,57 @@
     <t>Tenant</t>
   </si>
   <si>
+    <t>Bindu Arora</t>
+  </si>
+  <si>
+    <t>Neelam Chhabra / Richa Chhabra</t>
+  </si>
+  <si>
     <t>Cam RS.</t>
   </si>
   <si>
+    <t>ANIL GOYAL / ASHA  GOYAL</t>
+  </si>
+  <si>
     <t>HDFC ACCOUNT CREATION</t>
   </si>
   <si>
+    <t>OCRWA2T1A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B101</t>
+  </si>
+  <si>
     <t>OCRWA2T1A201</t>
   </si>
   <si>
+    <t>OCRWA2T1B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B501</t>
+  </si>
+  <si>
     <t>OCRWA2T1A601</t>
   </si>
   <si>
@@ -147,22 +1035,421 @@
     <t>OCRWA2T1B701</t>
   </si>
   <si>
+    <t>OCRWA2T1A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T1A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T1B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T2A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T2B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B901</t>
+  </si>
+  <si>
     <t>OCRWA2T3A1001</t>
   </si>
   <si>
+    <t>OCRWA2T3B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T3A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T3B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B201</t>
+  </si>
+  <si>
     <t>OCRWA2T4A301</t>
   </si>
   <si>
+    <t>OCRWA2T4B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B501</t>
+  </si>
+  <si>
     <t>OCRWA2T4A601</t>
   </si>
   <si>
+    <t>OCRWA2T4B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T4A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T4B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B801</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A901</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T5A1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T5B1201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B201</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A301</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B301</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A401</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B401</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A501</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B501</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A601</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B601</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A701</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B701</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A801</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B801</t>
+  </si>
+  <si>
     <t>OCRWA2T6A901</t>
   </si>
   <si>
+    <t>OCRWA2T6B901</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A1001</t>
+  </si>
+  <si>
+    <t>OCRWA2T6B1001</t>
+  </si>
+  <si>
     <t>OCRWA2T6A1101</t>
   </si>
   <si>
     <t>OCRWA2T6B1101</t>
+  </si>
+  <si>
+    <t>OCRWA2T6A1201</t>
   </si>
   <si>
     <t>OCRWA2T6B1201</t>
@@ -172,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -194,6 +1481,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -308,7 +1601,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -318,13 +1622,43 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +1768,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -594,50 +1934,50 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,6 +1990,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,35 +2001,65 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,308 +2516,3198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.06640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.06640625" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E3" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E5" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E8" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E10" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E18" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="C20" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="C22" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E24" s="20">
         <v>3.58</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E3" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="F24" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E25" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E26" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E27" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E28" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E30" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E4" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C32" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E32" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E35" s="20">
         <v>3.58</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="F35" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E36" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E37" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E38" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E39" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E40" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E41" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E42" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E43" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E45" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E46" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E47" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="19">
         <v>2985</v>
       </c>
-      <c r="E7" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="E48" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E49" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="19">
+        <v>2965</v>
+      </c>
+      <c r="E50" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E51" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="19">
+        <v>5091</v>
+      </c>
+      <c r="E52" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E53" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E54" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E55" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E56" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="25">
+        <v>2507</v>
+      </c>
+      <c r="E57" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="19">
         <v>3026</v>
       </c>
-      <c r="E8" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="E58" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E59" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="19">
         <v>3026</v>
       </c>
-      <c r="E9" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="E60" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E61" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" s="19">
         <v>3026</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E62" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E63" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E65" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E66" s="20">
         <v>3.58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="F66" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E67" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E68" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E69" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E70" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E71" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E72" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E73" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="19">
+        <v>2985</v>
+      </c>
+      <c r="E74" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E75" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="19">
         <v>2965</v>
       </c>
-      <c r="E11" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2583</v>
-      </c>
-      <c r="E12" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="E76" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D77" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E77" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="19">
+        <v>5091</v>
+      </c>
+      <c r="E78" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="19">
         <v>4331</v>
       </c>
-      <c r="E13" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="6"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10"/>
+      <c r="E79" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E80" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E81" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E82" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E83" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E84" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E85" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E86" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E87" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E88" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D89" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E89" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D90" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E90" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E91" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E92" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D93" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E93" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E94" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E95" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E96" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E97" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F97" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E98" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F98" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E99" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" s="19">
+        <v>2985</v>
+      </c>
+      <c r="E100" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E101" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="19">
+        <v>2965</v>
+      </c>
+      <c r="E102" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E103" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D104" s="19">
+        <v>5091</v>
+      </c>
+      <c r="E104" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E105" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E106" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E107" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E108" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E109" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E110" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E111" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E112" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F112" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E113" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D114" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E114" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E115" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" s="29">
+        <v>3026</v>
+      </c>
+      <c r="E116" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D117" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E117" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E118" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D119" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E119" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F119" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E120" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E121" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E122" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F122" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E123" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F123" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D124" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E124" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F124" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E125" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="19">
+        <v>2985</v>
+      </c>
+      <c r="E126" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F126" s="32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E127" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D128" s="19">
+        <v>2965</v>
+      </c>
+      <c r="E128" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F128" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E129" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F129" s="32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" s="19">
+        <v>5091</v>
+      </c>
+      <c r="E130" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E131" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F131" s="32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E132" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F132" s="32" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E133" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" s="19">
+        <v>2954</v>
+      </c>
+      <c r="E134" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F134" s="32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" s="19">
+        <v>2507</v>
+      </c>
+      <c r="E135" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F135" s="32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E136" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F136" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D137" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E137" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F137" s="32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D138" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E138" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F138" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E139" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A140" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E140" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D141" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E141" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E142" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D143" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E143" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D144" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E144" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A145" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E145" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E146" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E147" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E148" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F148" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E149" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D150" s="19">
+        <v>3026</v>
+      </c>
+      <c r="E150" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E151" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F151" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" s="19">
+        <v>2985</v>
+      </c>
+      <c r="E152" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F152" s="32" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D153" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E153" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" s="19">
+        <v>2965</v>
+      </c>
+      <c r="E154" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F154" s="32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" s="19">
+        <v>2583</v>
+      </c>
+      <c r="E155" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F155" s="32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D156" s="19">
+        <v>5091</v>
+      </c>
+      <c r="E156" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F156" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" s="19">
+        <v>4331</v>
+      </c>
+      <c r="E157" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F157" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B158" s="8"/>
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B159" s="10"/>
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
